--- a/data/download_SH515100.xlsx
+++ b/data/download_SH515100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1095"/>
+  <dimension ref="A1:F1110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26709,7 +26709,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>1.493</v>
+        <v>1.463</v>
       </c>
       <c r="D1095" t="n">
         <v>1.496</v>
@@ -26718,7 +26718,367 @@
         <v>1.504</v>
       </c>
       <c r="F1095" t="n">
-        <v>1.488</v>
+        <v>1.456</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>20250103</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1096" t="n">
+        <v>1.451</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>1.463</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>1.449</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>20250106</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1097" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>1.444</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>20250107</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1098" t="n">
+        <v>1.451</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>1.458</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>1.441</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>20250108</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1099" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>1.435</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>20250109</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1100" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>1.434</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>20250110</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1101" t="n">
+        <v>1.418</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>1.416</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>20250113</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1102" t="n">
+        <v>1.404</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>1.419</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>1.419</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>1.396</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>20250114</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1103" t="n">
+        <v>1.424</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>1.406</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>1.428</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>1.404</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>20250115</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1104" t="n">
+        <v>1.426</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>1.424</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>20250116</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1105" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>1.427</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>1.427</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>20250117</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1106" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>1.434</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>1.424</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>20250120</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1107" t="n">
+        <v>1.433</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>1.446</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>20250121</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1108" t="n">
+        <v>1.423</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>1.419</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>20250122</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1109" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>1.421</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>1.423</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>1.405</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>20250123</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1110" t="n">
+        <v>1.423</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>1.418</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>1.418</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH515100.xlsx
+++ b/data/download_SH515100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1110"/>
+  <dimension ref="A1:F1120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27081,6 +27081,246 @@
         <v>1.418</v>
       </c>
     </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1111" t="n">
+        <v>1.433</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>1.423</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>1.418</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>20250127</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1112" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>1.434</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>20250205</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1113" t="n">
+        <v>1.424</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>1.451</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>1.421</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>20250206</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1114" t="n">
+        <v>1.423</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>1.427</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>1.415</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1115" t="n">
+        <v>1.434</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>1.423</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>1.417</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>20250210</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1116" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>1.433</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>20250211</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1117" t="n">
+        <v>1.441</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>1.433</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>1.432</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>20250212</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1118" t="n">
+        <v>1.439</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>1.433</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>20250213</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1119" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>1.439</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>1.449</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>1.437</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>20250214</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1120" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>1.434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH515100.xlsx
+++ b/data/download_SH515100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1120"/>
+  <dimension ref="A1:F1125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27321,6 +27321,126 @@
         <v>1.434</v>
       </c>
     </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>20250217</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1121" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>1.443</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>1.432</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>20250218</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1122" t="n">
+        <v>1.446</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>1.453</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>1.439</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>20250219</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1123" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>1.435</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>20250220</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1124" t="n">
+        <v>1.433</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>1.432</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1125" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>1.433</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>1.425</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH515100.xlsx
+++ b/data/download_SH515100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1125"/>
+  <dimension ref="A1:F1126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27441,6 +27441,30 @@
         <v>1.425</v>
       </c>
     </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>20250224</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1126" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>1.428</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>1.427</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH515100.xlsx
+++ b/data/download_SH515100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1126"/>
+  <dimension ref="A1:F1130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27465,6 +27465,102 @@
         <v>1.427</v>
       </c>
     </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1127" t="n">
+        <v>1.419</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>1.428</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>1.428</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>1.416</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1128" t="n">
+        <v>1.431</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>1.431</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1129" t="n">
+        <v>1.441</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>1.431</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>1.441</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>1.427</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1130" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>1.441</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>1.435</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH515100.xlsx
+++ b/data/download_SH515100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1130"/>
+  <dimension ref="A1:F1131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>1.437</v>
+        <v>1.434</v>
       </c>
       <c r="D1130" t="n">
         <v>1.441</v>
@@ -27558,7 +27558,31 @@
         <v>1.444</v>
       </c>
       <c r="F1130" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>20250303</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1131" t="n">
         <v>1.435</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>1.439</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>1.432</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH515100.xlsx
+++ b/data/download_SH515100.xlsx
@@ -27573,7 +27573,7 @@
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>1.435</v>
+        <v>1.433</v>
       </c>
       <c r="D1131" t="n">
         <v>1.432</v>
@@ -27582,7 +27582,7 @@
         <v>1.439</v>
       </c>
       <c r="F1131" t="n">
-        <v>1.432</v>
+        <v>1.428</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH515100.xlsx
+++ b/data/download_SH515100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1131"/>
+  <dimension ref="A1:F1167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27585,6 +27585,870 @@
         <v>1.428</v>
       </c>
     </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>20250304</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1132" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>1.426</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>20250305</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1133" t="n">
+        <v>1.439</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>1.439</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>1.429</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>20250306</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1134" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>1.439</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>1.429</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1135" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>1.443</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>1.433</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>20250310</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1136" t="n">
+        <v>1.434</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>1.429</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>20250311</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1137" t="n">
+        <v>1.443</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>1.428</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1138" t="n">
+        <v>1.439</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>1.448</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>1.436</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>20250313</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1139" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>1.443</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>1.434</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1140" t="n">
+        <v>1.451</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>1.439</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>20250317</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1141" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>1.451</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>1.451</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>20250318</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1142" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>1.461</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>1.452</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>20250319</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1143" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>1.458</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1144" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>1.448</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>20250321</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1145" t="n">
+        <v>1.451</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>1.448</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>1.461</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>1.446</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>20250324</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1146" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>1.448</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>20250325</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1147" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>1.457</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>1.455</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>20250326</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1148" t="n">
+        <v>1.468</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>1.462</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>20250327</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1149" t="n">
+        <v>1.466</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>1.464</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>20250328</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1150" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>1.466</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>1.466</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>1.455</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1151" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>1.457</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>1.467</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>1.451</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>20250401</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1152" t="n">
+        <v>1.467</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>1.468</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>1.454</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>20250402</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1153" t="n">
+        <v>1.468</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>1.464</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>20250403</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1154" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>1.476</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>1.461</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1155" t="n">
+        <v>1.382</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>1.441</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>1.445</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>1.356</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1156" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>1.387</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>1.426</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>1.383</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>20250409</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1157" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>1.415</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>1.426</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>20250410</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1158" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>1.426</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>1.422</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>20250411</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1159" t="n">
+        <v>1.427</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>1.431</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>1.421</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>20250414</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1160" t="n">
+        <v>1.431</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>20250415</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1161" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>1.431</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>1.428</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>20250416</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1162" t="n">
+        <v>1.445</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>1.446</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>1.432</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>20250417</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1163" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>1.443</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>1.449</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>1.437</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>20250418</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1164" t="n">
+        <v>1.448</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>1.443</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>1.449</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>1.442</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>20250421</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1165" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>1.445</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>1.453</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>1.441</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>20250422</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1166" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>1.441</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>1.441</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>20250423</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1167" t="n">
+        <v>1.445</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>1.444</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH515100.xlsx
+++ b/data/download_SH515100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1167"/>
+  <dimension ref="A1:F1169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28449,6 +28449,54 @@
         <v>1.444</v>
       </c>
     </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1168" t="n">
+        <v>1.457</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>1.447</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1169" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>1.452</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH515100.xlsx
+++ b/data/download_SH515100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1169"/>
+  <dimension ref="A1:F1174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28497,6 +28497,126 @@
         <v>1.452</v>
       </c>
     </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1170" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>1.451</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1171" t="n">
+        <v>1.451</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>1.449</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>1.439</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1173" t="n">
+        <v>1.443</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>1.441</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>1.436</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>SH515100</t>
+        </is>
+      </c>
+      <c r="C1174" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>1.449</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>1.447</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
